--- a/app/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/app/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -192,9 +192,6 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>∞</t>
   </si>
   <si>
     <t>Мария Антонова</t>
@@ -387,20 +384,20 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -685,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,50 +708,50 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="C4" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="C5" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="C7" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -762,7 +759,7 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" s="6"/>
     </row>
@@ -771,8 +768,8 @@
         <v>1</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="12" t="s">
-        <v>56</v>
+      <c r="D9" s="12">
+        <v>7</v>
       </c>
       <c r="E9" s="6"/>
     </row>
@@ -896,7 +893,9 @@
       <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="5">
+        <v>5</v>
+      </c>
       <c r="D20" s="5" t="s">
         <v>5</v>
       </c>
@@ -906,7 +905,9 @@
       <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5">
+        <v>5</v>
+      </c>
       <c r="D21" s="5" t="s">
         <v>5</v>
       </c>
@@ -1214,7 +1215,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>
